--- a/data/trans_orig/P36BPD08_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F60F88-78F1-4BEB-BA40-AFD0BFABA125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{167170B6-4967-4BEB-A9A3-0DE2409876CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{36FF04C2-4899-4730-B340-9F0341EE2495}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C606E487-128C-451D-A4A8-BF86BD50AB8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,73%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,72%</t>
+    <t>99,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>94,17%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
@@ -104,10 +104,10 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,10 +122,10 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>Siete o más vasos a la semana</t>
@@ -134,517 +134,496 @@
     <t>3,77%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1059,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D7B50A-C6D8-42F6-88CC-5012954BCFCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74141E2-3EC5-40B4-B00D-50667533F1CA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1419,13 +1398,13 @@
         <v>861126</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,13 +1419,13 @@
         <v>10991</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1455,13 +1434,13 @@
         <v>6669</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -1470,13 +1449,13 @@
         <v>17660</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,10 +1658,10 @@
         <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,13 +1676,13 @@
         <v>30775</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -1712,13 +1691,13 @@
         <v>11372</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -1727,13 +1706,13 @@
         <v>42148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,7 +1768,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1801,13 +1780,13 @@
         <v>654023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>1098</v>
@@ -1816,13 +1795,13 @@
         <v>718443</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>1698</v>
@@ -1831,13 +1810,13 @@
         <v>1372466</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1831,13 @@
         <v>19823</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1867,13 +1846,13 @@
         <v>17748</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -1882,13 +1861,13 @@
         <v>37572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,13 +1882,13 @@
         <v>46814</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -1918,13 +1897,13 @@
         <v>10663</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -1933,13 +1912,13 @@
         <v>57476</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,7 +1974,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2007,13 +1986,13 @@
         <v>504685</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>965</v>
@@ -2022,13 +2001,13 @@
         <v>574919</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>1526</v>
@@ -2037,13 +2016,13 @@
         <v>1079603</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2037,13 @@
         <v>40191</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -2073,13 +2052,13 @@
         <v>11281</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -2088,13 +2067,13 @@
         <v>51472</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2088,13 @@
         <v>53202</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2124,13 +2103,13 @@
         <v>9667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -2139,13 +2118,13 @@
         <v>62868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,7 +2180,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2213,13 +2192,13 @@
         <v>533163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>1641</v>
@@ -2228,13 +2207,13 @@
         <v>991443</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>2425</v>
@@ -2243,13 +2222,13 @@
         <v>1524606</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2243,13 @@
         <v>49929</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -2279,13 +2258,13 @@
         <v>20562</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -2294,13 +2273,13 @@
         <v>70491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2294,13 @@
         <v>112422</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -2330,13 +2309,13 @@
         <v>13991</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>198</v>
@@ -2345,13 +2324,13 @@
         <v>126413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2398,13 @@
         <v>2923723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>5163</v>
@@ -2434,28 +2413,28 @@
         <v>3674887</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>8039</v>
       </c>
       <c r="N28" s="7">
-        <v>6598611</v>
+        <v>6598612</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2449,13 @@
         <v>164686</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>105</v>
@@ -2485,13 +2464,13 @@
         <v>68346</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>270</v>
@@ -2500,13 +2479,13 @@
         <v>233032</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2500,13 @@
         <v>287817</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>91</v>
@@ -2536,13 +2515,13 @@
         <v>62332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>416</v>
@@ -2551,13 +2530,13 @@
         <v>350150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,7 +2578,7 @@
         <v>8725</v>
       </c>
       <c r="N31" s="7">
-        <v>7181793</v>
+        <v>7181794</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -2613,7 +2592,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD08_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{167170B6-4967-4BEB-A9A3-0DE2409876CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93A7C43-02BB-44F0-ADED-3A3B04173A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C606E487-128C-451D-A4A8-BF86BD50AB8F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{10D39232-928F-41B9-B9FF-8FF9C60059E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="221">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -65,49 +65,49 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de tres vasos a la semana</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,75%</t>
+    <t>99,71%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -119,511 +119,583 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>Siete o más vasos a la semana</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>Siete o más vasos a la semana</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>3,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1038,8 +1110,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74141E2-3EC5-40B4-B00D-50667533F1CA}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62997C69-CE56-4144-A38F-0B7158ACA306}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1159,7 +1231,7 @@
         <v>155</v>
       </c>
       <c r="D4" s="7">
-        <v>335129</v>
+        <v>358219</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1174,7 +1246,7 @@
         <v>206</v>
       </c>
       <c r="I4" s="7">
-        <v>354797</v>
+        <v>313036</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1189,7 +1261,7 @@
         <v>361</v>
       </c>
       <c r="N4" s="7">
-        <v>689925</v>
+        <v>671255</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1210,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>28302</v>
+        <v>30041</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1240,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>28302</v>
+        <v>30041</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1261,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>14249</v>
+        <v>11728</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1276,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1291,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>14409</v>
+        <v>11892</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1312,7 +1384,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -1327,7 +1399,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -1342,7 +1414,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -1365,7 +1437,7 @@
         <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>385857</v>
+        <v>385303</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1380,7 +1452,7 @@
         <v>438</v>
       </c>
       <c r="I8" s="7">
-        <v>475270</v>
+        <v>491721</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1395,16 +1467,16 @@
         <v>710</v>
       </c>
       <c r="N8" s="7">
-        <v>861126</v>
+        <v>877025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,46 +1488,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>10991</v>
+        <v>10803</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>6669</v>
+        <v>5539</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>17660</v>
+        <v>16342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,46 +1539,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>30356</v>
+        <v>26233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>16479</v>
+        <v>14082</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>46835</v>
+        <v>40315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,7 +1590,7 @@
         <v>301</v>
       </c>
       <c r="D11" s="7">
-        <v>427204</v>
+        <v>422340</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -1533,7 +1605,7 @@
         <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>498418</v>
+        <v>511342</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -1548,7 +1620,7 @@
         <v>760</v>
       </c>
       <c r="N11" s="7">
-        <v>925621</v>
+        <v>933682</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -1562,7 +1634,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1571,46 +1643,46 @@
         <v>504</v>
       </c>
       <c r="D12" s="7">
-        <v>510867</v>
+        <v>494670</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>815</v>
       </c>
       <c r="I12" s="7">
-        <v>560018</v>
+        <v>521853</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1319</v>
       </c>
       <c r="N12" s="7">
-        <v>1070884</v>
+        <v>1016523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,46 +1694,46 @@
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>15450</v>
+        <v>14998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>12086</v>
+        <v>10921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>27536</v>
+        <v>25918</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,46 +1745,46 @@
         <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>30775</v>
+        <v>26507</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>11372</v>
+        <v>9694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
       </c>
       <c r="N14" s="7">
-        <v>42148</v>
+        <v>36201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1796,7 @@
         <v>545</v>
       </c>
       <c r="D15" s="7">
-        <v>557092</v>
+        <v>536175</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -1739,7 +1811,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -1754,7 +1826,7 @@
         <v>1391</v>
       </c>
       <c r="N15" s="7">
-        <v>1140568</v>
+        <v>1078642</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -1768,7 +1840,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1777,46 +1849,46 @@
         <v>600</v>
       </c>
       <c r="D16" s="7">
-        <v>654023</v>
+        <v>825448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>1098</v>
       </c>
       <c r="I16" s="7">
-        <v>718443</v>
+        <v>686853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>1698</v>
       </c>
       <c r="N16" s="7">
-        <v>1372466</v>
+        <v>1512301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,46 +1900,46 @@
         <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>19823</v>
+        <v>18986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>17748</v>
+        <v>16032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>37572</v>
+        <v>35018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,46 +1951,46 @@
         <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>46814</v>
+        <v>40356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>10663</v>
+        <v>9613</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
       </c>
       <c r="N18" s="7">
-        <v>57476</v>
+        <v>49969</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,7 +2002,7 @@
         <v>662</v>
       </c>
       <c r="D19" s="7">
-        <v>720660</v>
+        <v>884789</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -1945,7 +2017,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -1960,7 +2032,7 @@
         <v>1802</v>
       </c>
       <c r="N19" s="7">
-        <v>1467514</v>
+        <v>1597287</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -1974,7 +2046,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1983,46 +2055,46 @@
         <v>561</v>
       </c>
       <c r="D20" s="7">
-        <v>504685</v>
+        <v>473725</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>965</v>
       </c>
       <c r="I20" s="7">
-        <v>574919</v>
+        <v>527724</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>1526</v>
       </c>
       <c r="N20" s="7">
-        <v>1079603</v>
+        <v>1001448</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,46 +2106,46 @@
         <v>43</v>
       </c>
       <c r="D21" s="7">
-        <v>40191</v>
+        <v>38299</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
       </c>
       <c r="I21" s="7">
-        <v>11281</v>
+        <v>10421</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
       </c>
       <c r="N21" s="7">
-        <v>51472</v>
+        <v>48719</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,46 +2157,46 @@
         <v>57</v>
       </c>
       <c r="D22" s="7">
-        <v>53202</v>
+        <v>47221</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>9667</v>
+        <v>8606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
       </c>
       <c r="N22" s="7">
-        <v>62868</v>
+        <v>55826</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2208,7 @@
         <v>661</v>
       </c>
       <c r="D23" s="7">
-        <v>598078</v>
+        <v>559244</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -2151,7 +2223,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595867</v>
+        <v>546750</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -2166,7 +2238,7 @@
         <v>1661</v>
       </c>
       <c r="N23" s="7">
-        <v>1193944</v>
+        <v>1105994</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -2180,55 +2252,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>784</v>
+        <v>422</v>
       </c>
       <c r="D24" s="7">
-        <v>533163</v>
+        <v>271720</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>780</v>
+      </c>
+      <c r="I24" s="7">
+        <v>585775</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="7">
-        <v>1641</v>
-      </c>
-      <c r="I24" s="7">
-        <v>991443</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1202</v>
+      </c>
+      <c r="N24" s="7">
+        <v>857495</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="M24" s="7">
-        <v>2425</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1524606</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,49 +2309,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7">
-        <v>49929</v>
+        <v>30006</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>25</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13020</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="7">
-        <v>36</v>
-      </c>
-      <c r="I25" s="7">
-        <v>20562</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>70</v>
+      </c>
+      <c r="N25" s="7">
+        <v>43026</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M25" s="7">
-        <v>109</v>
-      </c>
-      <c r="N25" s="7">
-        <v>70491</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,49 +2360,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>100</v>
+      </c>
+      <c r="D26" s="7">
+        <v>64297</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="7">
+        <v>22</v>
+      </c>
+      <c r="I26" s="7">
+        <v>9573</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="7">
+        <v>122</v>
+      </c>
+      <c r="N26" s="7">
+        <v>73870</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="7">
-        <v>112422</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="7">
-        <v>30</v>
-      </c>
-      <c r="I26" s="7">
-        <v>13991</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="7">
-        <v>198</v>
-      </c>
-      <c r="N26" s="7">
-        <v>126413</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,10 +2411,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1025</v>
+        <v>567</v>
       </c>
       <c r="D27" s="7">
-        <v>695514</v>
+        <v>366023</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -2354,10 +2426,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1025996</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -2369,10 +2441,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1721510</v>
+        <v>974391</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -2386,55 +2458,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2876</v>
+        <v>362</v>
       </c>
       <c r="D28" s="7">
-        <v>2923723</v>
+        <v>225093</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>861</v>
+      </c>
+      <c r="I28" s="7">
+        <v>416490</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H28" s="7">
-        <v>5163</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3674887</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1223</v>
+      </c>
+      <c r="N28" s="7">
+        <v>641584</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M28" s="7">
-        <v>8039</v>
-      </c>
-      <c r="N28" s="7">
-        <v>6598612</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,49 +2515,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>164686</v>
+        <v>17260</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5524</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H29" s="7">
-        <v>105</v>
-      </c>
-      <c r="I29" s="7">
-        <v>68346</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>39</v>
+      </c>
+      <c r="N29" s="7">
+        <v>22783</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M29" s="7">
-        <v>270</v>
-      </c>
-      <c r="N29" s="7">
-        <v>233032</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,49 +2566,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="D30" s="7">
-        <v>287817</v>
+        <v>40406</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3276</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="7">
-        <v>91</v>
-      </c>
-      <c r="I30" s="7">
-        <v>62332</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="M30" s="7">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="N30" s="7">
-        <v>350150</v>
+        <v>43682</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,63 +2617,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425290</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708049</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2876</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3034178</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5163</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3543453</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8039</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6577630</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>165</v>
+      </c>
+      <c r="D33" s="7">
+        <v>160392</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="7">
+        <v>105</v>
+      </c>
+      <c r="I33" s="7">
+        <v>61456</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="7">
+        <v>270</v>
+      </c>
+      <c r="N33" s="7">
+        <v>221848</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>325</v>
+      </c>
+      <c r="D34" s="7">
+        <v>256747</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="7">
+        <v>91</v>
+      </c>
+      <c r="I34" s="7">
+        <v>55007</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" s="7">
+        <v>416</v>
+      </c>
+      <c r="N34" s="7">
+        <v>311754</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3366</v>
       </c>
-      <c r="D31" s="7">
-        <v>3376226</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3451317</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>5359</v>
       </c>
-      <c r="I31" s="7">
-        <v>3805566</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3659916</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>8725</v>
       </c>
-      <c r="N31" s="7">
-        <v>7181794</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>196</v>
+      <c r="N35" s="7">
+        <v>7111232</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
